--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/123/word_level_predictions_123.xlsx
@@ -1438,364 +1438,364 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" t="n">
         <v>2</v>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" t="n">
         <v>5</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>6</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1837,11 +1837,11 @@
         </is>
       </c>
       <c r="I27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K27" s="2" t="b">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Missed_B-NonEvent</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G70" s="2" t="b">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6638,260 +6638,260 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="E122" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="F122" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E123" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="E124" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7626,470 +7626,470 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" t="n">
         <v>9</v>
       </c>
-      <c r="B139" s="2" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C139" s="2" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D139" s="2" t="n">
+      <c r="D139" t="n">
         <v>10</v>
       </c>
-      <c r="E139" s="2" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" s="2" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>9</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" t="n">
         <v>11</v>
       </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>9</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" t="n">
         <v>12</v>
       </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" t="n">
         <v>9</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" t="n">
         <v>13</v>
       </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" t="n">
         <v>9</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" t="n">
         <v>14</v>
       </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" t="n">
         <v>9</v>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C144" s="2" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" t="n">
         <v>15</v>
       </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" t="n">
         <v>9</v>
       </c>
-      <c r="B145" s="2" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C145" s="2" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" t="n">
         <v>16</v>
       </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>9</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>17</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>9</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>18</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8510,208 +8510,208 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
+      <c r="A156" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B156" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C156" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D156" t="n">
+      <c r="D156" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E156" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G156" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K156" t="b">
-        <v>1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G156" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I156" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J156" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K156" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I157" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K157" t="b">
-        <v>1</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="E159" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="F159" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G159" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="G159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C193" s="2" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" t="b">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K193" t="b">
-        <v>1</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="G193" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C194" s="2" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G194" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K194" t="b">
-        <v>1</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" t="b">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K195" t="b">
-        <v>1</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C196" s="2" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G196" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" t="b">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K196" t="b">
-        <v>1</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G216" t="b">
@@ -11677,109 +11677,109 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F248" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G248" s="2" t="b">
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="L248" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13433,11 +13433,11 @@
         </is>
       </c>
       <c r="I250" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="I251" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="I252" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13589,11 +13589,11 @@
         </is>
       </c>
       <c r="I253" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13641,11 +13641,11 @@
         </is>
       </c>
       <c r="I254" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/123/word_level_predictions_123.xlsx
@@ -1438,364 +1438,364 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1837,11 +1837,11 @@
         </is>
       </c>
       <c r="I27" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K27" s="2" t="b">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Missed_B-NonEvent</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G70" s="2" t="b">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6638,260 +6638,260 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>8</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>3</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F120" s="2" t="inlineStr">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>8</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>altitude</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>4</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
         <v>8</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t>altitude</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F121" s="2" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
         <v>8</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>6</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F122" s="2" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
         <v>8</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>distance</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>7</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F124" s="2" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7626,470 +7626,470 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C147" s="2" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E147" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8510,208 +8510,208 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" t="n">
         <v>10</v>
       </c>
-      <c r="B156" s="2" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C156" s="2" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D156" s="2" t="n">
+      <c r="D156" t="n">
         <v>7</v>
       </c>
-      <c r="E156" s="2" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F156" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G156" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I156" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K156" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L156" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" t="n">
         <v>10</v>
       </c>
-      <c r="B157" s="2" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C157" s="2" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D157" s="2" t="n">
+      <c r="D157" t="n">
         <v>8</v>
       </c>
-      <c r="E157" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G157" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L157" s="2" t="inlineStr">
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" t="n">
         <v>10</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" t="n">
         <v>9</v>
       </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2" t="inlineStr">
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" t="n">
         <v>10</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" t="n">
         <v>10</v>
       </c>
-      <c r="E159" s="2" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F159" s="2" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" s="2" t="inlineStr">
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" t="n">
         <v>12</v>
       </c>
-      <c r="B193" s="2" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" s="2" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" t="n">
         <v>4</v>
       </c>
-      <c r="E193" s="2" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" s="2" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L193" s="2" t="inlineStr">
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" t="n">
         <v>12</v>
       </c>
-      <c r="B194" s="2" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" s="2" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" s="2" t="n">
+      <c r="D194" t="n">
         <v>5</v>
       </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L194" s="2" t="inlineStr">
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K194" t="b">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" t="n">
         <v>12</v>
       </c>
-      <c r="B195" s="2" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" s="2" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" s="2" t="n">
+      <c r="D195" t="n">
         <v>6</v>
       </c>
-      <c r="E195" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G195" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L195" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K195" t="b">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" t="n">
         <v>12</v>
       </c>
-      <c r="B196" s="2" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" s="2" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" s="2" t="n">
+      <c r="D196" t="n">
         <v>7</v>
       </c>
-      <c r="E196" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L196" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" t="b">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K196" t="b">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>12</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>8</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>12</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>9</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11653,133 +11653,133 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>13</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>10</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>13</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>11</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D218" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F248" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G248" s="2" t="b">
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="L248" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13433,11 +13433,11 @@
         </is>
       </c>
       <c r="I250" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="I251" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="I252" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13589,11 +13589,11 @@
         </is>
       </c>
       <c r="I253" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13641,11 +13641,11 @@
         </is>
       </c>
       <c r="I254" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
